--- a/biology/Zoologie/Clelia_(genre)/Clelia_(genre).xlsx
+++ b/biology/Zoologie/Clelia_(genre)/Clelia_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Clelia est un genre de serpents de la famille des Dipsadidae[1].
+Clelia est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent du Mexique à l'Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent du Mexique à l'Argentine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 août 2013) :
 Clelia clelia (Daudin, 1803)
 Clelia equatoriana (Amaral, 1924)
 Clelia errabunda Underwood, 1993
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fitzinger, 1826 : Neue classification der reptilien nach ihren natürlichen verwandtschaften. Nebst einer verwandtschafts-tafel und einem verzeichnisse der reptilien-sammlung des K. K. zoologischen museum's zu Wien, p. 1-67 (texte intégral).</t>
         </is>
